--- a/presentations/recodyn-intro-techs/career-path.xlsx
+++ b/presentations/recodyn-intro-techs/career-path.xlsx
@@ -85,7 +85,7 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Intern Tech</t>
+    <t>Intern Technician</t>
   </si>
   <si>
     <t>MBG-CSIC</t>
@@ -94,7 +94,7 @@
     <t>Internship</t>
   </si>
   <si>
-    <t>Department fellow</t>
+    <t>Department Fellow</t>
   </si>
   <si>
     <t>Erasmus+ Intern</t>
@@ -112,7 +112,7 @@
     <t>UAB</t>
   </si>
   <si>
-    <t>Research Tech</t>
+    <t>Research Technician</t>
   </si>
   <si>
     <t>JAE Intro Fellow</t>
@@ -142,7 +142,7 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Research stay</t>
+    <t>Research Mobility Fellow</t>
   </si>
   <si>
     <t>Santander Iberoamérica</t>
